--- a/words list - Copy.xlsx
+++ b/words list - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SB classification with speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C4DB6-EBBF-4CF3-B03B-2AAD6E5CB4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E82C7-68A6-4AC8-9B88-ED63A90BC3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="310">
   <si>
     <t>bubblemask</t>
   </si>
@@ -314,13 +314,652 @@
   </si>
   <si>
     <t>ShriRam</t>
+  </si>
+  <si>
+    <t>bakedmultiblusher</t>
+  </si>
+  <si>
+    <t>SB-405</t>
+  </si>
+  <si>
+    <t>SB405</t>
+  </si>
+  <si>
+    <t>SB-605</t>
+  </si>
+  <si>
+    <t>SB605</t>
+  </si>
+  <si>
+    <t>SB-801</t>
+  </si>
+  <si>
+    <t>SB801</t>
+  </si>
+  <si>
+    <t>blusherandhighlighter</t>
+  </si>
+  <si>
+    <t>SB-802</t>
+  </si>
+  <si>
+    <t>SB802</t>
+  </si>
+  <si>
+    <t>professionalblusher</t>
+  </si>
+  <si>
+    <t>SB-805</t>
+  </si>
+  <si>
+    <t>SB805</t>
+  </si>
+  <si>
+    <t>brickhighlighter</t>
+  </si>
+  <si>
+    <t>SB-807</t>
+  </si>
+  <si>
+    <t>SB807</t>
+  </si>
+  <si>
+    <t>blusherstick</t>
+  </si>
+  <si>
+    <t>SB-810</t>
+  </si>
+  <si>
+    <t>SB810</t>
+  </si>
+  <si>
+    <t>liquidhighlighter</t>
+  </si>
+  <si>
+    <t>SB-815</t>
+  </si>
+  <si>
+    <t>SB815</t>
+  </si>
+  <si>
+    <t>glowbakedblusher</t>
+  </si>
+  <si>
+    <t>SB-823</t>
+  </si>
+  <si>
+    <t>SB823</t>
+  </si>
+  <si>
+    <t>highlighterandbronzerpalette</t>
+  </si>
+  <si>
+    <t>SB-881</t>
+  </si>
+  <si>
+    <t>SB881</t>
+  </si>
+  <si>
+    <t>ultrablushpalette</t>
+  </si>
+  <si>
+    <t>SB-403</t>
+  </si>
+  <si>
+    <t>SB403</t>
+  </si>
+  <si>
+    <t>mattepressedpowder</t>
+  </si>
+  <si>
+    <t>matpressedpowder</t>
+  </si>
+  <si>
+    <t>matepressedpowder</t>
+  </si>
+  <si>
+    <t>SB-404</t>
+  </si>
+  <si>
+    <t>SB404</t>
+  </si>
+  <si>
+    <t>oilcontrolpowder</t>
+  </si>
+  <si>
+    <t>SB-407</t>
+  </si>
+  <si>
+    <t>SB407</t>
+  </si>
+  <si>
+    <t>oilcontrolcompact</t>
+  </si>
+  <si>
+    <t>SB-1202</t>
+  </si>
+  <si>
+    <t>SB1202</t>
+  </si>
+  <si>
+    <t>eyebrowpencil</t>
+  </si>
+  <si>
+    <t>SB-713</t>
+  </si>
+  <si>
+    <t>SB713</t>
+  </si>
+  <si>
+    <t>bropalette</t>
+  </si>
+  <si>
+    <t>browpalette</t>
+  </si>
+  <si>
+    <t>eyebrowpalette</t>
+  </si>
+  <si>
+    <t>EG01</t>
+  </si>
+  <si>
+    <t>eyelash</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>eyelashes</t>
+  </si>
+  <si>
+    <t>falseeyelash</t>
+  </si>
+  <si>
+    <t>falseeyelashes</t>
+  </si>
+  <si>
+    <t>SB-1003</t>
+  </si>
+  <si>
+    <t>SB1003</t>
+  </si>
+  <si>
+    <t>SB-1005</t>
+  </si>
+  <si>
+    <t>SB1005</t>
+  </si>
+  <si>
+    <t>ultrablack</t>
+  </si>
+  <si>
+    <t>liquidpeneyeliner</t>
+  </si>
+  <si>
+    <t>SB-09</t>
+  </si>
+  <si>
+    <t>SB09</t>
+  </si>
+  <si>
+    <t>liquideyeliner</t>
+  </si>
+  <si>
+    <t>SB-915</t>
+  </si>
+  <si>
+    <t>SB915</t>
+  </si>
+  <si>
+    <t>eyeliner</t>
+  </si>
+  <si>
+    <t>SB-931</t>
+  </si>
+  <si>
+    <t>SB931</t>
+  </si>
+  <si>
+    <t>mataliceyeliner</t>
+  </si>
+  <si>
+    <t>metalliceyeliner</t>
+  </si>
+  <si>
+    <t>SB-EK16</t>
+  </si>
+  <si>
+    <t>SBEK16</t>
+  </si>
+  <si>
+    <t>EK16</t>
+  </si>
+  <si>
+    <t>hdmatteeyeliner</t>
+  </si>
+  <si>
+    <t>hdmateyeliner</t>
+  </si>
+  <si>
+    <t>SB-700</t>
+  </si>
+  <si>
+    <t>SB700</t>
+  </si>
+  <si>
+    <t>makeupproeyeshadow</t>
+  </si>
+  <si>
+    <t>bigeyeshadow</t>
+  </si>
+  <si>
+    <t>SB-702</t>
+  </si>
+  <si>
+    <t>SB702</t>
+  </si>
+  <si>
+    <t>professionaleyeshadow</t>
+  </si>
+  <si>
+    <t>SB-703</t>
+  </si>
+  <si>
+    <t>SB703</t>
+  </si>
+  <si>
+    <t>18coloreyeshadow</t>
+  </si>
+  <si>
+    <t>hdtextureeyeshadow</t>
+  </si>
+  <si>
+    <t>SB-705</t>
+  </si>
+  <si>
+    <t>SB705</t>
+  </si>
+  <si>
+    <t>12ultraprofessionaleyeshadow</t>
+  </si>
+  <si>
+    <t>12ultraprofessionaleyeshadows</t>
+  </si>
+  <si>
+    <t>12ultra</t>
+  </si>
+  <si>
+    <t>12eyeshadow</t>
+  </si>
+  <si>
+    <t>SB-707</t>
+  </si>
+  <si>
+    <t>SB707</t>
+  </si>
+  <si>
+    <t>hdprofessionaleyeshadow</t>
+  </si>
+  <si>
+    <t>40coloreyeshadow</t>
+  </si>
+  <si>
+    <t>SB-710</t>
+  </si>
+  <si>
+    <t>SB710</t>
+  </si>
+  <si>
+    <t>SB-711</t>
+  </si>
+  <si>
+    <t>SB711</t>
+  </si>
+  <si>
+    <t>SB-730</t>
+  </si>
+  <si>
+    <t>SB730</t>
+  </si>
+  <si>
+    <t>SB-733</t>
+  </si>
+  <si>
+    <t>SB733</t>
+  </si>
+  <si>
+    <t>SB-PRO</t>
+  </si>
+  <si>
+    <t>SBPRO</t>
+  </si>
+  <si>
+    <t>SB-PRO 32 Color</t>
+  </si>
+  <si>
+    <t>32coloreyeshadow</t>
+  </si>
+  <si>
+    <t>SBPRO32Color</t>
+  </si>
+  <si>
+    <t>SB-502</t>
+  </si>
+  <si>
+    <t>SB502</t>
+  </si>
+  <si>
+    <t>SB-503</t>
+  </si>
+  <si>
+    <t>SB503</t>
+  </si>
+  <si>
+    <t>SB-505</t>
+  </si>
+  <si>
+    <t>SB505</t>
+  </si>
+  <si>
+    <t>SB-507</t>
+  </si>
+  <si>
+    <t>SB507</t>
+  </si>
+  <si>
+    <t>SB-8672</t>
+  </si>
+  <si>
+    <t>SB8672</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>EK12</t>
+  </si>
+  <si>
+    <t>EK14</t>
+  </si>
+  <si>
+    <t>EK15</t>
+  </si>
+  <si>
+    <t>SB-301</t>
+  </si>
+  <si>
+    <t>SB301</t>
+  </si>
+  <si>
+    <t>SB-302</t>
+  </si>
+  <si>
+    <t>SB302</t>
+  </si>
+  <si>
+    <t>SB-210</t>
+  </si>
+  <si>
+    <t>SB210</t>
+  </si>
+  <si>
+    <t>SB-1201</t>
+  </si>
+  <si>
+    <t>SB1201</t>
+  </si>
+  <si>
+    <t>SB-1203</t>
+  </si>
+  <si>
+    <t>SB1203</t>
+  </si>
+  <si>
+    <t>SB-S3</t>
+  </si>
+  <si>
+    <t>SBS3</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>SB-S17</t>
+  </si>
+  <si>
+    <t>SBS17</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>SB-202</t>
+  </si>
+  <si>
+    <t>SB202</t>
+  </si>
+  <si>
+    <t>SB-205</t>
+  </si>
+  <si>
+    <t>SB205</t>
+  </si>
+  <si>
+    <t>SB-S6</t>
+  </si>
+  <si>
+    <t>SBS6</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>SB-395</t>
+  </si>
+  <si>
+    <t>SB395</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>SB-11</t>
+  </si>
+  <si>
+    <t>SB11</t>
+  </si>
+  <si>
+    <t>SB-10</t>
+  </si>
+  <si>
+    <t>SB10</t>
+  </si>
+  <si>
+    <t>SB-8095</t>
+  </si>
+  <si>
+    <t>SB8095</t>
+  </si>
+  <si>
+    <t>SB-602</t>
+  </si>
+  <si>
+    <t>SB602</t>
+  </si>
+  <si>
+    <t>SB-606</t>
+  </si>
+  <si>
+    <t>SB606</t>
+  </si>
+  <si>
+    <t>SB-101</t>
+  </si>
+  <si>
+    <t>SB101</t>
+  </si>
+  <si>
+    <t>SB-104</t>
+  </si>
+  <si>
+    <t>SB104</t>
+  </si>
+  <si>
+    <t>SB-MS45</t>
+  </si>
+  <si>
+    <t>SBMS45</t>
+  </si>
+  <si>
+    <t>MS45</t>
+  </si>
+  <si>
+    <t>SB-MS045</t>
+  </si>
+  <si>
+    <t>SBMS045</t>
+  </si>
+  <si>
+    <t>MS045</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>SB-MS60</t>
+  </si>
+  <si>
+    <t>SBMS60</t>
+  </si>
+  <si>
+    <t>MS60</t>
+  </si>
+  <si>
+    <t>SB-MS65</t>
+  </si>
+  <si>
+    <t>SBMS65</t>
+  </si>
+  <si>
+    <t>MS65</t>
+  </si>
+  <si>
+    <t>SB-MS70</t>
+  </si>
+  <si>
+    <t>SBMS70</t>
+  </si>
+  <si>
+    <t>MS70</t>
+  </si>
+  <si>
+    <t>SB-MS75</t>
+  </si>
+  <si>
+    <t>SBMS75</t>
+  </si>
+  <si>
+    <t>MS75</t>
+  </si>
+  <si>
+    <t>SB-3001</t>
+  </si>
+  <si>
+    <t>SB3001</t>
+  </si>
+  <si>
+    <t>SB-15</t>
+  </si>
+  <si>
+    <t>SB15</t>
+  </si>
+  <si>
+    <t>SB-1507</t>
+  </si>
+  <si>
+    <t>SB1507</t>
+  </si>
+  <si>
+    <t>SB-1602</t>
+  </si>
+  <si>
+    <t>SB1602</t>
+  </si>
+  <si>
+    <t>SB-412</t>
+  </si>
+  <si>
+    <t>SB412</t>
+  </si>
+  <si>
+    <t>SB-510</t>
+  </si>
+  <si>
+    <t>SB510</t>
+  </si>
+  <si>
+    <t>SB-1301</t>
+  </si>
+  <si>
+    <t>SB1301</t>
+  </si>
+  <si>
+    <t>SB-1302</t>
+  </si>
+  <si>
+    <t>SB1302</t>
+  </si>
+  <si>
+    <t>SB-1304</t>
+  </si>
+  <si>
+    <t>SB1304</t>
+  </si>
+  <si>
+    <t>SB-1305</t>
+  </si>
+  <si>
+    <t>SB1305</t>
+  </si>
+  <si>
+    <t>SB-1319</t>
+  </si>
+  <si>
+    <t>SB1319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +974,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +996,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,11 +1019,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,6 +1051,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1287,9 +1970,1313 @@
         <v>18</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>8672</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>202</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="9">
+        <v>205</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>395</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
+        <v>11</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
+        <v>10</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
+        <v>8095</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>602</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>606</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>101</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>104</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>15</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
+        <v>1507</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>1602</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>412</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>510</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="5">
+        <v>1301</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="5">
+        <v>1302</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="5">
+        <v>1304</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>1305</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="5">
+        <v>1319</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A76">
+  <conditionalFormatting sqref="A2:A67 A70 A72 A74 A76">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
